--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>367130.1226901315</v>
+        <v>371313.332672672</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462389</v>
+        <v>3854815.050462392</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7711405.691307114</v>
+        <v>7711405.691307115</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>316.5185976959204</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>109.9401751621156</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.85905444009098</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -905,10 +907,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>87.23889096685062</v>
       </c>
       <c r="G5" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>285.8222677061726</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>212.7942906506604</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1230,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>175.6983641828944</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>227.0919634647639</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -1436,7 +1438,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.1103944575774</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>86.64940239199029</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>271.4782620917445</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>23.89882956533496</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>134.1713099644714</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>33.01699698630663</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1941,7 +1943,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>97.61153143263792</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>43.89213401624576</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>175.3547777856996</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>332.5288987789005</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>152.7855877686577</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -2254,13 +2256,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,22 +2320,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>372.4493205843859</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.8222677061717</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2479,19 +2481,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11.61260049965533</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>43.10686148368571</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>363.5377374116185</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>305.6096491809507</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -2725,13 +2727,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>46.66637815986252</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>55.90153566709413</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2852,7 +2854,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>181.9020860214002</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>159.3149947016331</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>192.8371467617012</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>372.4089305243873</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3041,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>282.0581143991869</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>51.05925556456923</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>179.9570833866859</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>235.4551847859273</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>371.7027381898234</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355094</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
@@ -3430,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>21.60777156327071</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>85.02094575110164</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3503,19 +3505,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>161.4085122120584</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>117.7816957168085</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>141.6390489090674</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.944127764632535</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.36554834245073</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>130.2461483395497</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.25296922810389</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
@@ -4192,10 +4194,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1162.787751730473</v>
+        <v>977.8416154369563</v>
       </c>
       <c r="C2" t="n">
-        <v>769.6122502334035</v>
+        <v>977.8416154369563</v>
       </c>
       <c r="D2" t="n">
-        <v>769.6122502334035</v>
+        <v>977.8416154369563</v>
       </c>
       <c r="E2" t="n">
-        <v>367.028725349948</v>
+        <v>575.2580905535008</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>158.3636520834785</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712875</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415868</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.42141205333</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O2" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>1905.389306738351</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V2" t="n">
-        <v>1563.28249744187</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.28249744187</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.28249744187</v>
+        <v>1378.336361148353</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.28249744187</v>
+        <v>1378.336361148353</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195842</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.492043226187</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N3" t="n">
-        <v>1814.990048232789</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O3" t="n">
-        <v>2331.51033082377</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4519,19 +4521,19 @@
         <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1965.153759365783</v>
+        <v>923.457715654039</v>
       </c>
       <c r="C5" t="n">
-        <v>1571.978257868714</v>
+        <v>923.457715654039</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.537129085382</v>
+        <v>538.0165868707068</v>
       </c>
       <c r="E5" t="n">
-        <v>783.9536042019261</v>
+        <v>135.4330619872513</v>
       </c>
       <c r="F5" t="n">
-        <v>367.0591657319038</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
@@ -4571,46 +4573,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1096.945999082414</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1624.757282719876</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>2064.796883612205</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>1720.443170444835</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>1323.952461365436</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>745.9259573278732</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1331.423962334475</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O6" t="n">
-        <v>1847.944244925457</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2253.565613641854</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4753,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6228038740554</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.663050286385</v>
+        <v>964.2667172894805</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.953688967018</v>
+        <v>571.091215792411</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2150.704777147219</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1761.252172080276</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.157795997781</v>
+        <v>1364.761463000877</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1331.423962334475</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1847.944244925457</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
         <v>2341.731461975244</v>
@@ -4923,10 +4925,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>432.7540988848759</v>
+        <v>578.8255885061482</v>
       </c>
       <c r="C11" t="n">
-        <v>432.7540988848759</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.608904184852</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>1339.781895001287</v>
+        <v>2136.2626833956</v>
       </c>
       <c r="W11" t="n">
-        <v>968.782859969574</v>
+        <v>1765.263648363887</v>
       </c>
       <c r="X11" t="n">
-        <v>579.3302549026308</v>
+        <v>1375.811043296944</v>
       </c>
       <c r="Y11" t="n">
-        <v>432.7540988848759</v>
+        <v>979.320334217545</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1670983834974</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M12" t="n">
-        <v>623.6437572083089</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>882.0615091076409</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U13" t="n">
-        <v>596.6227173495417</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V13" t="n">
-        <v>330.643372170366</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365783</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868714</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085382</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019261</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F14" t="n">
-        <v>783.9536042019261</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G14" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H14" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4764287842802</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L14" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>982.6355417998745</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>586.1448327204756</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>1549.231189288413</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N15" t="n">
-        <v>1849.128222486199</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5464,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>182.839545823232</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="C17" t="n">
-        <v>182.839545823232</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D17" t="n">
-        <v>182.839545823232</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E17" t="n">
-        <v>182.839545823232</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F17" t="n">
-        <v>182.839545823232</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G17" t="n">
-        <v>182.839545823232</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
         <v>406.2953261290054</v>
@@ -5528,37 +5530,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>1681.888704297768</v>
+        <v>2332.298003070809</v>
       </c>
       <c r="V17" t="n">
-        <v>1339.781895001287</v>
+        <v>1990.191193774328</v>
       </c>
       <c r="W17" t="n">
-        <v>968.782859969574</v>
+        <v>1619.192158742615</v>
       </c>
       <c r="X17" t="n">
-        <v>579.3302549026308</v>
+        <v>1229.739553675672</v>
       </c>
       <c r="Y17" t="n">
-        <v>182.839545823232</v>
+        <v>833.2488445962728</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.116207068686</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N18" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>850.162486145482</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="V19" t="n">
-        <v>447.0615956321544</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W19" t="n">
-        <v>447.0615956321544</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X19" t="n">
-        <v>402.7261067268557</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>402.7261067268557</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1150.012650815455</v>
+        <v>1003.055638549319</v>
       </c>
       <c r="C20" t="n">
-        <v>756.8371493183852</v>
+        <v>609.8801370522492</v>
       </c>
       <c r="D20" t="n">
-        <v>371.396020535053</v>
+        <v>224.439008268917</v>
       </c>
       <c r="E20" t="n">
-        <v>371.396020535053</v>
+        <v>224.439008268917</v>
       </c>
       <c r="F20" t="n">
-        <v>371.396020535053</v>
+        <v>224.439008268917</v>
       </c>
       <c r="G20" t="n">
-        <v>371.396020535053</v>
+        <v>224.439008268917</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636597</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U20" t="n">
-        <v>1886.395173071196</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="V20" t="n">
-        <v>1550.507396526852</v>
+        <v>1800.041093340114</v>
       </c>
       <c r="W20" t="n">
-        <v>1550.507396526852</v>
+        <v>1800.041093340114</v>
       </c>
       <c r="X20" t="n">
-        <v>1550.507396526852</v>
+        <v>1800.041093340114</v>
       </c>
       <c r="Y20" t="n">
-        <v>1550.507396526852</v>
+        <v>1403.550384260716</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5825,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O21" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P21" t="n">
         <v>2365.648505077179</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C22" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D22" t="n">
-        <v>528.4517709299226</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E22" t="n">
-        <v>372.8929587891251</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F22" t="n">
-        <v>215.5670240020981</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5944,16 +5946,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y22" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1233.594345002359</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C23" t="n">
-        <v>840.418843505289</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D23" t="n">
-        <v>840.418843505289</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="E23" t="n">
-        <v>840.418843505289</v>
+        <v>1166.079525402928</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5244050352668</v>
+        <v>749.1850869329058</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>336.022331420909</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -6002,37 +6004,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>1973.427801529577</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V23" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W23" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X23" t="n">
-        <v>1634.089090713755</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y23" t="n">
-        <v>1634.089090713755</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
-        <v>140.0776713099947</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L24" t="n">
-        <v>623.643757208308</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>1209.14176221491</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>1209.14176221491</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O24" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P24" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1957.328425202522</v>
+        <v>1789.885151508144</v>
       </c>
       <c r="C25" t="n">
-        <v>1787.123307268512</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="D25" t="n">
-        <v>1631.490194171026</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="E25" t="n">
-        <v>1475.931382030229</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>2198.205231382801</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>2198.205231382801</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>2198.205231382801</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>2198.205231382801</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>2198.205231382801</v>
       </c>
       <c r="X25" t="n">
-        <v>2365.64850507718</v>
+        <v>2198.205231382801</v>
       </c>
       <c r="Y25" t="n">
-        <v>2142.536443893824</v>
+        <v>1975.093170199445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6202,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1568.663050286385</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C26" t="n">
-        <v>1175.487548789315</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D26" t="n">
-        <v>1175.487548789315</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E26" t="n">
-        <v>772.9040239058595</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F26" t="n">
-        <v>356.0095854358373</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>173.6308686433316</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>666.9511603618604</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y26" t="n">
         <v>1969.157795997781</v>
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L27" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>1549.231189288413</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2180.440486385879</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C28" t="n">
-        <v>2010.235368451868</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D28" t="n">
-        <v>1854.602255354383</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E28" t="n">
-        <v>1699.043443213586</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F28" t="n">
-        <v>1541.717508426558</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G28" t="n">
-        <v>1494.579752709526</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H28" t="n">
-        <v>1494.579752709526</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I28" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1584.0494853856</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="C29" t="n">
-        <v>1190.873983888531</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.873983888531</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="E29" t="n">
-        <v>788.2904590050753</v>
+        <v>566.1993350861176</v>
       </c>
       <c r="F29" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U29" t="n">
-        <v>2109.895775511779</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V29" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W29" t="n">
-        <v>1584.0494853856</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X29" t="n">
-        <v>1584.0494853856</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="Y29" t="n">
-        <v>1584.0494853856</v>
+        <v>968.7828599695731</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E30" t="n">
         <v>429.4892645340348</v>
@@ -6531,28 +6533,28 @@
         <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212709</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818106</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O30" t="n">
         <v>1725.662044805891</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6643,28 +6645,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>630.074006546682</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>630.074006546682</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>630.074006546682</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>630.074006546682</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>630.074006546682</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X31" t="n">
-        <v>395.993684329665</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.993684329665</v>
+        <v>208.2372071739002</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2365.64850507718</v>
+        <v>1151.698119716826</v>
       </c>
       <c r="C32" t="n">
-        <v>1989.47786818386</v>
+        <v>1151.698119716826</v>
       </c>
       <c r="D32" t="n">
-        <v>1604.036739400527</v>
+        <v>1151.698119716826</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.453214517072</v>
+        <v>749.1145948333708</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>332.2201563633486</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>1548.188828796225</v>
       </c>
       <c r="Y32" t="n">
-        <v>2365.64850507718</v>
+        <v>1151.698119716826</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6773,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
         <v>367.0521161637701</v>
@@ -6786,16 +6788,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>1374.52913135418</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N33" t="n">
-        <v>1960.027136360782</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>713.0409408113302</v>
+        <v>215.567024002098</v>
       </c>
       <c r="C34" t="n">
-        <v>713.0409408113302</v>
+        <v>215.567024002098</v>
       </c>
       <c r="D34" t="n">
-        <v>713.0409408113302</v>
+        <v>215.567024002098</v>
       </c>
       <c r="E34" t="n">
-        <v>661.4659351905532</v>
+        <v>215.567024002098</v>
       </c>
       <c r="F34" t="n">
-        <v>504.1400004035262</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G34" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H34" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6883,25 +6885,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>766.9851609393729</v>
       </c>
       <c r="T34" t="n">
-        <v>713.0409408113302</v>
+        <v>766.9851609393729</v>
       </c>
       <c r="U34" t="n">
-        <v>713.0409408113302</v>
+        <v>481.5463691812738</v>
       </c>
       <c r="V34" t="n">
-        <v>713.0409408113302</v>
+        <v>215.567024002098</v>
       </c>
       <c r="W34" t="n">
-        <v>713.0409408113302</v>
+        <v>215.567024002098</v>
       </c>
       <c r="X34" t="n">
-        <v>713.0409408113302</v>
+        <v>215.567024002098</v>
       </c>
       <c r="Y34" t="n">
-        <v>713.0409408113302</v>
+        <v>215.567024002098</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2365.64850507718</v>
+        <v>808.2114101877278</v>
       </c>
       <c r="C35" t="n">
-        <v>2127.814985091395</v>
+        <v>808.2114101877278</v>
       </c>
       <c r="D35" t="n">
-        <v>1742.373856308063</v>
+        <v>422.7702814043955</v>
       </c>
       <c r="E35" t="n">
-        <v>1339.790331424607</v>
+        <v>422.7702814043955</v>
       </c>
       <c r="F35" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G35" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1231.283934773481</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N35" t="n">
-        <v>1759.095218410943</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O35" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.64850507718</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.64850507718</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y35" t="n">
-        <v>2365.64850507718</v>
+        <v>1208.706155899125</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
         <v>696.0247228016668</v>
@@ -7008,58 +7010,58 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>2021.614212075288</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O36" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>237.3930558841897</v>
+        <v>1705.640037859355</v>
       </c>
       <c r="C37" t="n">
-        <v>237.3930558841897</v>
+        <v>1705.640037859355</v>
       </c>
       <c r="D37" t="n">
-        <v>237.3930558841897</v>
+        <v>1705.640037859355</v>
       </c>
       <c r="E37" t="n">
-        <v>237.3930558841897</v>
+        <v>1550.081225718558</v>
       </c>
       <c r="F37" t="n">
-        <v>215.5670240020981</v>
+        <v>1550.081225718558</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="T37" t="n">
-        <v>745.9439088256454</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="U37" t="n">
-        <v>460.5051170675463</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="V37" t="n">
-        <v>460.5051170675463</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="W37" t="n">
-        <v>460.5051170675463</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="X37" t="n">
-        <v>460.5051170675463</v>
+        <v>1928.752099042712</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.3930558841897</v>
+        <v>1705.640037859355</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1760.647290592356</v>
+        <v>210.351871325845</v>
       </c>
       <c r="C38" t="n">
-        <v>1367.471789095286</v>
+        <v>210.351871325845</v>
       </c>
       <c r="D38" t="n">
-        <v>982.0306603119541</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E38" t="n">
-        <v>579.4471354284985</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>2118.077574438405</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2161.142036303753</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V38" t="n">
-        <v>2161.142036303753</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W38" t="n">
-        <v>2161.142036303753</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X38" t="n">
-        <v>2161.142036303753</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y38" t="n">
-        <v>2161.142036303753</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K39" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L39" t="n">
-        <v>160.427952321271</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M39" t="n">
-        <v>745.9259573278732</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N39" t="n">
-        <v>1331.423962334475</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="O39" t="n">
-        <v>1847.944244925457</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2253.565613641854</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
         <v>2341.731461975244</v>
@@ -7293,10 +7295,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7360,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>580.789353924969</v>
+        <v>514.4657669078483</v>
       </c>
       <c r="C41" t="n">
-        <v>187.6138524278995</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D41" t="n">
-        <v>187.6138524278995</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E41" t="n">
-        <v>187.6138524278995</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F41" t="n">
-        <v>187.6138524278995</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>187.6138524278995</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
@@ -7424,37 +7426,37 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>2118.077574438405</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S41" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T41" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U41" t="n">
-        <v>1719.881618012246</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="V41" t="n">
-        <v>1377.774808715765</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="W41" t="n">
-        <v>1377.774808715765</v>
+        <v>1700.903826765587</v>
       </c>
       <c r="X41" t="n">
-        <v>1377.774808715765</v>
+        <v>1311.451221698644</v>
       </c>
       <c r="Y41" t="n">
-        <v>981.2840996363659</v>
+        <v>914.9605126192453</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212709</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818106</v>
       </c>
       <c r="M42" t="n">
-        <v>1436.116207068686</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1849.128222486199</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O42" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.5759872032662</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>390.5759872032662</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>390.5759872032662</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>235.0171750624687</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7597,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U43" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X43" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1370.654121893487</v>
+        <v>815.3320970100051</v>
       </c>
       <c r="C44" t="n">
-        <v>977.4786203964179</v>
+        <v>422.1565955129357</v>
       </c>
       <c r="D44" t="n">
-        <v>592.0374916130856</v>
+        <v>422.1565955129357</v>
       </c>
       <c r="E44" t="n">
-        <v>592.0374916130856</v>
+        <v>422.1565955129357</v>
       </c>
       <c r="F44" t="n">
-        <v>592.0374916130856</v>
+        <v>422.1565955129357</v>
       </c>
       <c r="G44" t="n">
-        <v>178.8747361010888</v>
+        <v>422.1565955129357</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>98.07354507942631</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T44" t="n">
-        <v>2142.147902636597</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U44" t="n">
-        <v>2142.147902636597</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="V44" t="n">
-        <v>2142.147902636597</v>
+        <v>1601.275411156347</v>
       </c>
       <c r="W44" t="n">
-        <v>1771.148867604884</v>
+        <v>1601.275411156347</v>
       </c>
       <c r="X44" t="n">
-        <v>1771.148867604884</v>
+        <v>1211.822806089404</v>
       </c>
       <c r="Y44" t="n">
-        <v>1771.148867604884</v>
+        <v>815.3320970100051</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J45" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.141762214911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7828,28 +7830,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V46" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>468.0425993879824</v>
+        <v>638.576869701113</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>121.5663691156888</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8219,7 +8221,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P5" t="n">
-        <v>267.4792869621647</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>263.5850982253572</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>204.2031950097791</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8465,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>212.9227975229102</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617826</v>
       </c>
       <c r="P9" t="n">
-        <v>373.2845452201562</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8699,16 +8701,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>540.0265064010104</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M12" t="n">
-        <v>237.313040054172</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>281.329912376922</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8942,10 +8944,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,10 +9014,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>272.8385602943852</v>
       </c>
       <c r="N15" t="n">
-        <v>388.2984090135469</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9176,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N18" t="n">
-        <v>265.8235510992406</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9413,7 +9415,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
@@ -9483,19 +9485,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
-        <v>359.7712890658291</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>183.2986537257082</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9875,7 +9877,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>270.6522400901343</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9887,13 +9889,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N27" t="n">
-        <v>151.5659933015362</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10112,7 +10114,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10124,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10188,22 +10190,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069882</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>116.714810194778</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10349,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10434,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>621.5900809302174</v>
+        <v>272.8385602943852</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,22 +10588,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802264</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5312379546906</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10665,22 +10667,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O36" t="n">
-        <v>203.4645300474768</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10835,7 +10837,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>399.6354845339704</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
@@ -10899,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577839</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.2031950097791</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11072,10 +11074,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>149.5638374240964</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P41" t="n">
-        <v>400.3730943507992</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11136,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>502.5559668112513</v>
+        <v>263.5850982253572</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,7 +11299,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11309,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>277.8952841518213</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,16 +11378,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>663.2434089132784</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -22556,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>96.20689638940161</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>299.0909527947613</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22610,7 +22612,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22717,16 +22719,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>146.7124589214579</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,10 +22795,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>325.4866031184714</v>
       </c>
       <c r="G5" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22838,7 +22840,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -22847,10 +22849,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22993,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>103.4214787759261</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,10 +23083,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>154.494754030735</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>87.62118754448957</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23276,7 +23278,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>111.5937777387529</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>247.4154075310275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,19 +23427,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>69.10327304716648</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>137.5528658651323</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>361.6592494509388</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23747,7 +23749,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>186.6709099647028</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>220.1782052834407</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23941,19 +23943,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>187.847384978601</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23984,7 +23986,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>145.4874421434746</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24023,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>6.156842424616286</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24130,7 +24132,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>1.29119419785269</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,13 +24144,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>36.58180737249091</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>35.01995222300252</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24263,16 +24265,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>144.1400749395015</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>157.6810614955904</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>18.04898008388039</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>103.4214787759261</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>119.9051352016864</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>356.8239584182278</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>185.3869586599952</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>24.04094380275521</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24856,10 +24858,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>7.950776217574912</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
@@ -24898,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>16.83481595771138</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>126.97301355769</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24980,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,19 +25083,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>102.9439684548203</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25123,16 +25125,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>20.83083959259019</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>153.7885616961714</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>41.02275589549862</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,13 +25320,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>134.1449038758861</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>81.55056761044727</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25366,7 +25368,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25375,7 +25377,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>220.1782052834405</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>294.9437983685135</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,22 +25554,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25600,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>247.6046975730313</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25643,10 +25645,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>318.8980921645417</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.9903901619375</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25792,10 +25794,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
@@ -25807,7 +25809,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25877,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>190.5960715896245</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>86.70077651035592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666896.4550799496</v>
+        <v>666896.4550799493</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666896.4550799496</v>
+        <v>666896.455079949</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>666896.4550799493</v>
+        <v>666896.4550799496</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666896.4550799497</v>
+        <v>666896.4550799493</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666896.455079949</v>
+        <v>666896.4550799496</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666896.4550799492</v>
+        <v>666896.4550799495</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666896.4550799492</v>
+        <v>666896.4550799486</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666896.455079949</v>
+        <v>666896.4550799495</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666896.4550799495</v>
+        <v>666896.4550799492</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666896.455079949</v>
+        <v>666896.4550799496</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666896.4550799492</v>
+        <v>666896.4550799496</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666896.4550799493</v>
+        <v>666896.4550799496</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="C2" t="n">
         <v>169394.3482070293</v>
@@ -26320,16 +26322,16 @@
         <v>169394.3482070293</v>
       </c>
       <c r="E2" t="n">
+        <v>169394.3482070291</v>
+      </c>
+      <c r="F2" t="n">
         <v>169394.3482070293</v>
-      </c>
-      <c r="F2" t="n">
-        <v>169394.3482070292</v>
       </c>
       <c r="G2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="H2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="I2" t="n">
         <v>169394.3482070292</v>
@@ -26338,7 +26340,7 @@
         <v>169394.3482070292</v>
       </c>
       <c r="K2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="L2" t="n">
         <v>169394.3482070292</v>
@@ -26347,7 +26349,7 @@
         <v>169394.3482070293</v>
       </c>
       <c r="N2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="O2" t="n">
         <v>169394.3482070292</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>46245.16569024821</v>
       </c>
       <c r="C4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.16569024822</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="E4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="G4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="H4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="I4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="J4" t="n">
         <v>46245.16569024821</v>
@@ -26448,16 +26450,16 @@
         <v>46245.16569024821</v>
       </c>
       <c r="M4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="N4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.16569024819</v>
       </c>
       <c r="O4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="P4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144632.0807521371</v>
+        <v>-144632.080752137</v>
       </c>
       <c r="C6" t="n">
-        <v>53563.72523960791</v>
+        <v>53563.72523960794</v>
       </c>
       <c r="D6" t="n">
-        <v>53563.72523960788</v>
+        <v>53563.725239608</v>
       </c>
       <c r="E6" t="n">
+        <v>87191.32523960782</v>
+      </c>
+      <c r="F6" t="n">
+        <v>87191.32523960793</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87191.32523960786</v>
+      </c>
+      <c r="H6" t="n">
         <v>87191.3252396079</v>
       </c>
-      <c r="F6" t="n">
-        <v>87191.32523960788</v>
-      </c>
-      <c r="G6" t="n">
-        <v>87191.32523960785</v>
-      </c>
-      <c r="H6" t="n">
-        <v>87191.32523960789</v>
-      </c>
       <c r="I6" t="n">
-        <v>87191.32523960782</v>
+        <v>87191.3252396079</v>
       </c>
       <c r="J6" t="n">
-        <v>-67548.10912599556</v>
+        <v>-67548.10912599554</v>
       </c>
       <c r="K6" t="n">
-        <v>87191.32523960788</v>
+        <v>87191.32523960792</v>
       </c>
       <c r="L6" t="n">
-        <v>87191.32523960785</v>
+        <v>87191.32523960783</v>
       </c>
       <c r="M6" t="n">
         <v>87191.32523960793</v>
       </c>
       <c r="N6" t="n">
-        <v>87191.32523960792</v>
+        <v>87191.32523960785</v>
       </c>
       <c r="O6" t="n">
-        <v>87191.32523960786</v>
+        <v>87191.3252396079</v>
       </c>
       <c r="P6" t="n">
-        <v>87191.32523960786</v>
+        <v>87191.3252396079</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34699,16 +34701,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>314.7944296574907</v>
+        <v>485.3286999706212</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>34.48300429637414</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,7 +34941,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P5" t="n">
-        <v>117.1778397212395</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711906</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.2150418538651</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35185,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>63.35896009881382</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728937</v>
       </c>
       <c r="P9" t="n">
-        <v>286.2011804008416</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35419,16 +35421,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>390.9080150632263</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M12" t="n">
-        <v>144.9259180048601</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35662,10 +35664,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,10 +35734,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>180.4514382450733</v>
       </c>
       <c r="N15" t="n">
-        <v>302.9262961593802</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N18" t="n">
-        <v>180.451438245074</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36133,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359632</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
-        <v>209.4698418249039</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>93.70171839237487</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>127.5938369108969</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36607,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N27" t="n">
-        <v>66.19388044736954</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36844,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576763</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>24.02725130588916</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>529.2029588809055</v>
+        <v>180.4514382450733</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,22 +37308,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424423</v>
       </c>
       <c r="O35" t="n">
-        <v>425.9674005305943</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O36" t="n">
-        <v>110.7769711585879</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37555,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>250.071647109874</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>292.470543168895</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.2150418538651</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P41" t="n">
-        <v>250.071647109874</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>417.1838539570846</v>
+        <v>178.2129853711906</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38029,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>127.5938369108961</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>570.8562868639665</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371313.332672672</v>
+        <v>365605.1768647857</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462392</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330058</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7711405.691307115</v>
+        <v>7711405.691307114</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>372.4089305243873</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -673,10 +673,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>109.9401751621156</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.85905444009098</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>28.48969855726921</v>
       </c>
       <c r="F5" t="n">
-        <v>87.23889096685062</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -995,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>25.16600008759397</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>307.6077533827491</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.7942906506604</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1232,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>55.12369050152972</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>155.2803080317802</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>227.0919634647639</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>86.64940239199029</v>
+        <v>111.7631149905511</v>
       </c>
       <c r="G13" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>30.22574221916769</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23.89882956533496</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.519394494172</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>61.08638012146917</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>33.01699698630663</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>97.61153143263792</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>222.4095051956602</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>338.4057794822496</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>175.3547777856996</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,31 +2238,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>86.33074517210672</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>34.06888552134743</v>
       </c>
       <c r="H23" t="n">
-        <v>285.8222677061717</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.10686148368571</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>363.5377374116185</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,10 +2572,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>138.2537829369945</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>21.27104444158489</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>55.90153566709413</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -2848,16 +2848,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>307.0355306190323</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.3149947016331</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>21.27104444158489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>288.8587431286671</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>282.0581143991869</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3176,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>177.5210747552484</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>179.9570833866859</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>94.56022118533976</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>371.7027381898234</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>85.02094575110164</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>362.5759511455682</v>
       </c>
       <c r="D38" t="n">
-        <v>161.4085122120584</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>116.876383545772</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>141.6390489090674</v>
+        <v>353.6781258957236</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>8.776313046546457</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>371.1381816582764</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.25296922810389</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>6.771201706303731</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>977.8416154369563</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C2" t="n">
-        <v>977.8416154369563</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D2" t="n">
-        <v>977.8416154369563</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E2" t="n">
-        <v>575.2580905535008</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F2" t="n">
-        <v>158.3636520834785</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>1031.420512008749</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1577.421412053329</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511778</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X2" t="n">
-        <v>1378.336361148353</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.336361148353</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154359</v>
+        <v>194.5661265746817</v>
       </c>
       <c r="L3" t="n">
-        <v>530.8790559998569</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631988</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
         <v>2341.731461975244</v>
@@ -4451,10 +4451,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4521,19 +4521,19 @@
         <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>386.3238676264566</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.3238676264566</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>923.457715654039</v>
+        <v>76.09044339171453</v>
       </c>
       <c r="C5" t="n">
-        <v>923.457715654039</v>
+        <v>76.09044339171453</v>
       </c>
       <c r="D5" t="n">
-        <v>538.0165868707068</v>
+        <v>76.09044339171453</v>
       </c>
       <c r="E5" t="n">
-        <v>135.4330619872513</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2109.895775511778</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>2109.895775511778</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W5" t="n">
-        <v>2109.895775511778</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X5" t="n">
-        <v>1720.443170444835</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1323.952461365436</v>
+        <v>476.5851891031114</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
@@ -4652,46 +4652,46 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M6" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N6" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>356.0635742790467</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>72.73317221022438</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.2667172894805</v>
+        <v>751.2033740054303</v>
       </c>
       <c r="C8" t="n">
-        <v>571.091215792411</v>
+        <v>358.0278725083609</v>
       </c>
       <c r="D8" t="n">
-        <v>185.6500870090788</v>
+        <v>358.0278725083609</v>
       </c>
       <c r="E8" t="n">
-        <v>185.6500870090788</v>
+        <v>358.0278725083609</v>
       </c>
       <c r="F8" t="n">
-        <v>185.6500870090788</v>
+        <v>358.0278725083609</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2150.704777147219</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.252172080276</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y8" t="n">
-        <v>1364.761463000877</v>
+        <v>1151.698119716827</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4995,19 +4995,19 @@
         <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>578.8255885061482</v>
+        <v>1575.139601866251</v>
       </c>
       <c r="C11" t="n">
-        <v>185.6500870090788</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D11" t="n">
-        <v>185.6500870090788</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E11" t="n">
-        <v>185.6500870090788</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F11" t="n">
-        <v>185.6500870090788</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G11" t="n">
         <v>185.6500870090788</v>
@@ -5038,55 +5038,55 @@
         <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N11" t="n">
-        <v>1832.615452804709</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V11" t="n">
-        <v>2136.2626833956</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W11" t="n">
-        <v>1765.263648363887</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X11" t="n">
-        <v>1375.811043296944</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y11" t="n">
-        <v>979.320334217545</v>
+        <v>1975.634347577648</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L12" t="n">
-        <v>272.5108437565968</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631988</v>
+        <v>745.9259573278732</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>1331.423962334475</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>1847.944244925457</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2253.565613641854</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>622.0429194582225</v>
+        <v>639.6509845843718</v>
       </c>
       <c r="C13" t="n">
-        <v>622.0429194582225</v>
+        <v>639.6509845843718</v>
       </c>
       <c r="D13" t="n">
-        <v>622.0429194582225</v>
+        <v>484.0178714868866</v>
       </c>
       <c r="E13" t="n">
-        <v>622.0429194582225</v>
+        <v>328.4590593460891</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5226,25 +5226,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y13" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>185.6500870090788</v>
+        <v>1703.660243210722</v>
       </c>
       <c r="C14" t="n">
-        <v>185.6500870090788</v>
+        <v>1310.484741713652</v>
       </c>
       <c r="D14" t="n">
-        <v>185.6500870090788</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E14" t="n">
-        <v>185.6500870090788</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>185.6500870090788</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303378</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749184</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.57585191238</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2199.13495001823</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T14" t="n">
-        <v>1975.634347577647</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U14" t="n">
-        <v>1719.881618012245</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V14" t="n">
-        <v>1377.774808715764</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W14" t="n">
-        <v>1006.775773684051</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X14" t="n">
-        <v>982.6355417998745</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y14" t="n">
-        <v>586.1448327204756</v>
+        <v>2104.154988922119</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M15" t="n">
-        <v>1029.265125924706</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N15" t="n">
-        <v>1614.763130931308</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O15" t="n">
-        <v>2131.283413522289</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T16" t="n">
-        <v>882.0615091076409</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U16" t="n">
-        <v>596.6227173495417</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V16" t="n">
-        <v>330.643372170366</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>432.7540988848759</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="C17" t="n">
-        <v>432.7540988848759</v>
+        <v>984.5993072186952</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154359</v>
+        <v>984.5993072186952</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>2332.298003070809</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V17" t="n">
-        <v>1990.191193774328</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W17" t="n">
-        <v>1619.192158742615</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X17" t="n">
-        <v>1229.739553675672</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y17" t="n">
-        <v>833.2488445962728</v>
+        <v>1377.774808715765</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631988</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>850.162486145482</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>564.7236943873829</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V19" t="n">
-        <v>564.7236943873829</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="W19" t="n">
-        <v>281.3932923185605</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1003.055638549319</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="C20" t="n">
-        <v>609.8801370522492</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="D20" t="n">
-        <v>224.439008268917</v>
+        <v>1219.194183762603</v>
       </c>
       <c r="E20" t="n">
-        <v>224.439008268917</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>224.439008268917</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>224.439008268917</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N20" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636596</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U20" t="n">
-        <v>2142.147902636596</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V20" t="n">
-        <v>1800.041093340114</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W20" t="n">
-        <v>1800.041093340114</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X20" t="n">
-        <v>1800.041093340114</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="Y20" t="n">
-        <v>1403.550384260716</v>
+        <v>1604.635312545935</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L21" t="n">
-        <v>272.5108437565968</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631988</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P21" t="n">
         <v>2365.648505077179</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.7599926430961</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5937,25 +5937,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>948.7599926430961</v>
+        <v>861.5572197419782</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="X22" t="n">
-        <v>948.7599926430961</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.7599926430961</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1568.663050286384</v>
+        <v>1208.144603466536</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.663050286384</v>
+        <v>1208.144603466536</v>
       </c>
       <c r="D23" t="n">
-        <v>1568.663050286384</v>
+        <v>822.7034746832039</v>
       </c>
       <c r="E23" t="n">
-        <v>1166.079525402928</v>
+        <v>822.7034746832039</v>
       </c>
       <c r="F23" t="n">
-        <v>749.1850869329058</v>
+        <v>405.8090362131817</v>
       </c>
       <c r="G23" t="n">
-        <v>336.022331420909</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.648505077179</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X23" t="n">
-        <v>2365.648505077179</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="Y23" t="n">
-        <v>1969.157795997781</v>
+        <v>1208.144603466536</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154359</v>
+        <v>140.0776713099947</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1789.885151508144</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2198.205231382801</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2198.205231382801</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>2198.205231382801</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>2198.205231382801</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>2198.205231382801</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>2198.205231382801</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>1975.093170199445</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1568.663050286384</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="C26" t="n">
-        <v>1568.663050286384</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="D26" t="n">
-        <v>1201.453214517072</v>
+        <v>1557.941091669497</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.453214517072</v>
+        <v>1155.357566786042</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>738.4631283160196</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>325.3003728040227</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="X26" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="Y26" t="n">
-        <v>1969.157795997781</v>
+        <v>1943.38222045283</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154358</v>
+        <v>194.5661265746817</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="D28" t="n">
-        <v>847.4030175052487</v>
+        <v>224.3576857186895</v>
       </c>
       <c r="E28" t="n">
-        <v>691.8442053644512</v>
+        <v>68.79887357789198</v>
       </c>
       <c r="F28" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6417,19 +6417,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>968.7828599695731</v>
+        <v>922.895892954585</v>
       </c>
       <c r="C29" t="n">
-        <v>968.7828599695731</v>
+        <v>922.895892954585</v>
       </c>
       <c r="D29" t="n">
-        <v>968.7828599695731</v>
+        <v>922.895892954585</v>
       </c>
       <c r="E29" t="n">
-        <v>566.1993350861176</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F29" t="n">
-        <v>509.7331374425881</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G29" t="n">
         <v>509.7331374425881</v>
@@ -6460,55 +6460,55 @@
         <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>851.7967205028082</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M29" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>1937.641433863168</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U29" t="n">
-        <v>1681.888704297767</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V29" t="n">
-        <v>1339.781895001286</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W29" t="n">
-        <v>968.7828599695731</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="X29" t="n">
-        <v>968.7828599695731</v>
+        <v>1323.390638665982</v>
       </c>
       <c r="Y29" t="n">
-        <v>968.7828599695731</v>
+        <v>1323.390638665982</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4279523212709</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K30" t="n">
-        <v>480.1670983834974</v>
+        <v>194.5661265746817</v>
       </c>
       <c r="L30" t="n">
-        <v>963.7331842818106</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M30" t="n">
-        <v>1209.14176221491</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.14176221491</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154359</v>
+        <v>224.3576857186895</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154359</v>
+        <v>68.79887357789198</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154359</v>
+        <v>68.79887357789198</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154359</v>
+        <v>68.79887357789198</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>68.79887357789198</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6654,19 +6654,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4295905742738</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X31" t="n">
-        <v>431.3492683572568</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.2372071739002</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1151.698119716826</v>
+        <v>1154.835758707771</v>
       </c>
       <c r="C32" t="n">
-        <v>1151.698119716826</v>
+        <v>1154.835758707771</v>
       </c>
       <c r="D32" t="n">
-        <v>1151.698119716826</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E32" t="n">
-        <v>749.1145948333708</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F32" t="n">
-        <v>332.2201563633486</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>1937.641433863168</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U32" t="n">
-        <v>1937.641433863168</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V32" t="n">
-        <v>1937.641433863168</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W32" t="n">
-        <v>1937.641433863168</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="X32" t="n">
-        <v>1548.188828796225</v>
+        <v>1154.835758707771</v>
       </c>
       <c r="Y32" t="n">
-        <v>1151.698119716826</v>
+        <v>1154.835758707771</v>
       </c>
     </row>
     <row r="33">
@@ -6773,52 +6773,52 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M33" t="n">
-        <v>1029.265125924706</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N33" t="n">
-        <v>1614.763130931308</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O33" t="n">
-        <v>2131.283413522289</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X33" t="n">
         <v>1177.789504607029</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6885,25 +6885,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>766.9851609393729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>766.9851609393729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>481.5463691812738</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>215.567024002098</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W34" t="n">
-        <v>215.567024002098</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X34" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>808.2114101877278</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="C35" t="n">
-        <v>808.2114101877278</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="D35" t="n">
-        <v>422.7702814043955</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E35" t="n">
-        <v>422.7702814043955</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
@@ -6946,43 +6946,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1044.265390756362</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1392.57585191238</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.648505077179</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.648505077179</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W35" t="n">
-        <v>1994.649470045467</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="X35" t="n">
-        <v>1605.196864978524</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="Y35" t="n">
-        <v>1208.706155899125</v>
+        <v>962.306308389708</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>745.9259573278732</v>
       </c>
       <c r="N36" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1705.640037859355</v>
+        <v>854.2900019614187</v>
       </c>
       <c r="C37" t="n">
-        <v>1705.640037859355</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D37" t="n">
-        <v>1705.640037859355</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E37" t="n">
-        <v>1550.081225718558</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F37" t="n">
-        <v>1550.081225718558</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V37" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W37" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X37" t="n">
-        <v>1928.752099042712</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y37" t="n">
-        <v>1705.640037859355</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.351871325845</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C38" t="n">
-        <v>210.351871325845</v>
+        <v>602.544525479101</v>
       </c>
       <c r="D38" t="n">
-        <v>47.31297010154359</v>
+        <v>602.544525479101</v>
       </c>
       <c r="E38" t="n">
-        <v>47.31297010154359</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>2109.895775511778</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V38" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W38" t="n">
-        <v>1396.789931183584</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X38" t="n">
-        <v>1007.337326116641</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y38" t="n">
-        <v>610.8466170372419</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M39" t="n">
-        <v>1436.116207068685</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1436.116207068685</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7362,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>713.0409408113302</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="U40" t="n">
-        <v>427.6021490532311</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6228038740554</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W40" t="n">
-        <v>47.31297010154359</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>514.4657669078483</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="C41" t="n">
-        <v>371.396020535053</v>
+        <v>1714.652229579398</v>
       </c>
       <c r="D41" t="n">
-        <v>371.396020535053</v>
+        <v>1329.211100796066</v>
       </c>
       <c r="E41" t="n">
-        <v>371.396020535053</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F41" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
@@ -7420,43 +7420,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1590.266290800943</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N41" t="n">
-        <v>2118.077574438405</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T41" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U41" t="n">
-        <v>2071.9028617973</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V41" t="n">
-        <v>2071.9028617973</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W41" t="n">
-        <v>1700.903826765587</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="X41" t="n">
-        <v>1311.451221698644</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="Y41" t="n">
-        <v>914.9605126192453</v>
+        <v>2071.902861797301</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
         <v>429.4892645340348</v>
@@ -7481,31 +7481,31 @@
         <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>160.4279523212709</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L42" t="n">
-        <v>963.7331842818106</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>1549.231189288413</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.662044805891</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805891</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P42" t="n">
         <v>2131.283413522289</v>
@@ -7535,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825358</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>371.1258361428955</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>371.1258361428955</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>371.1258361428955</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>330.643372170366</v>
+        <v>654.4562382117178</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154359</v>
+        <v>371.1258361428955</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>371.1258361428955</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>371.1258361428955</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.3320970100051</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="C44" t="n">
-        <v>422.1565955129357</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D44" t="n">
-        <v>422.1565955129357</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E44" t="n">
-        <v>422.1565955129357</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F44" t="n">
-        <v>422.1565955129357</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G44" t="n">
-        <v>422.1565955129357</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>98.07354507942631</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1614.445445502115</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O44" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T44" t="n">
-        <v>2199.13495001823</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U44" t="n">
-        <v>1943.382220452829</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V44" t="n">
-        <v>1601.275411156347</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W44" t="n">
-        <v>1601.275411156347</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X44" t="n">
-        <v>1211.822806089404</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y44" t="n">
-        <v>815.3320970100051</v>
+        <v>1224.535589534975</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.14176221491</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7836,22 +7836,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6228038740554</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>638.576869701113</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>124.0799396297078</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8300,16 +8300,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>263.5850982253572</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229102</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,13 +8540,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.9393879617826</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8692,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8701,16 +8701,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>540.0265064010104</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>317.5329465084872</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>204.2031950097791</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>281.329912376922</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8941,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084876</v>
       </c>
       <c r="M15" t="n">
-        <v>272.8385602943852</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9178,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9245,22 +9245,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234615</v>
+        <v>502.5559668112513</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9415,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9485,19 +9485,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9652,7 +9652,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
@@ -9719,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>183.2986537257082</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9880,7 +9880,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888792</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>124.0799396297078</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10129,10 +10129,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>238.3374974274122</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069882</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10430,25 +10430,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084876</v>
       </c>
       <c r="M33" t="n">
-        <v>272.8385602943852</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10594,19 +10594,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>500.9472399802264</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>179.0738312465417</v>
+        <v>553.266865265316</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10837,7 +10837,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
@@ -10904,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>385.1581020577839</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11068,19 +11068,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>263.5850982253572</v>
+        <v>588.7923855055292</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11308,13 +11308,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>277.8952841518213</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118428</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>16.83481595771138</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>299.0909527947613</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22603,16 +22603,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22719,16 +22719,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>146.7124589214579</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22789,13 +22789,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>370.0679910773517</v>
       </c>
       <c r="F5" t="n">
-        <v>325.4866031184714</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -22834,19 +22834,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -23001,13 +23001,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>206.5735189072527</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23035,13 +23035,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>101.4233745741278</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23083,7 +23083,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>154.494754030735</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23235,13 +23235,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>208.1958612258543</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.9634384503184</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23308,25 +23308,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>111.5937777387529</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>69.10327304716648</v>
+        <v>43.98956044860569</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>351.3609752763313</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>361.6592494509388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>14.55738747233838</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>131.7634811092929</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>337.4713095131517</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>220.1782052834407</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23943,19 +23943,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>135.7503298808103</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>40.91004653172376</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>60.15191015237127</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>145.4874421434746</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24019,7 +24019,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>114.4571778071694</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>374.9622424355294</v>
       </c>
       <c r="H23" t="n">
-        <v>35.01995222300252</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24256,10 +24256,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
@@ -24268,7 +24268,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24381,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6810614955904</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>18.04898008388039</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>182.5884369921797</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24606,25 +24606,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>134.4816309975719</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24688,13 +24688,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>356.8239584182278</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>78.52254839724145</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.04094380275521</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24858,7 +24858,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>110.492436667708</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24894,7 +24894,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>92.72797436683186</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>126.97301355769</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25089,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25125,7 +25125,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>20.83083959259019</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>301.9295770689432</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41.02275589549862</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25210,16 +25210,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>81.55056761044727</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25362,7 +25362,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -25377,10 +25377,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>26.66779533653045</v>
       </c>
       <c r="D38" t="n">
-        <v>220.1782052834405</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -25411,7 +25411,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25602,19 +25602,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>247.6046975730313</v>
+        <v>35.56562058637508</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25839,13 +25839,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>254.5432386808376</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>18.10556482382225</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>86.70077651035592</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>176.5847367980845</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26076,16 +26076,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666896.4550799493</v>
+        <v>666896.4550799496</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666896.455079949</v>
+        <v>666896.4550799496</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666896.4550799493</v>
+        <v>666896.455079949</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666896.4550799496</v>
+        <v>666896.4550799488</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666896.4550799495</v>
+        <v>666896.4550799493</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666896.455079949</v>
+        <v>666896.4550799489</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666896.4550799486</v>
+        <v>666896.4550799497</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666896.455079949</v>
+        <v>666896.4550799492</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666896.4550799493</v>
+        <v>666896.4550799497</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666896.4550799492</v>
+        <v>666896.455079949</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666896.4550799496</v>
+        <v>666896.4550799497</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666896.4550799496</v>
+        <v>666896.4550799495</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666896.4550799496</v>
+        <v>666896.455079949</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="C2" t="n">
         <v>169394.3482070293</v>
@@ -26322,10 +26322,10 @@
         <v>169394.3482070293</v>
       </c>
       <c r="E2" t="n">
-        <v>169394.3482070291</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="F2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="G2" t="n">
         <v>169394.3482070292</v>
@@ -26334,25 +26334,25 @@
         <v>169394.3482070292</v>
       </c>
       <c r="I2" t="n">
+        <v>169394.3482070293</v>
+      </c>
+      <c r="J2" t="n">
+        <v>169394.3482070293</v>
+      </c>
+      <c r="K2" t="n">
         <v>169394.3482070292</v>
-      </c>
-      <c r="J2" t="n">
-        <v>169394.3482070292</v>
-      </c>
-      <c r="K2" t="n">
-        <v>169394.3482070293</v>
       </c>
       <c r="L2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="M2" t="n">
+        <v>169394.3482070292</v>
+      </c>
+      <c r="N2" t="n">
         <v>169394.3482070293</v>
       </c>
-      <c r="N2" t="n">
-        <v>169394.3482070292</v>
-      </c>
       <c r="O2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="P2" t="n">
         <v>169394.3482070292</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>46245.16569024821</v>
       </c>
       <c r="C4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="E4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="G4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="H4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="I4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="J4" t="n">
         <v>46245.16569024821</v>
@@ -26450,16 +26450,16 @@
         <v>46245.16569024821</v>
       </c>
       <c r="M4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="N4" t="n">
-        <v>46245.16569024819</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="O4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="P4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144632.080752137</v>
+        <v>-145306.1068783571</v>
       </c>
       <c r="C6" t="n">
-        <v>53563.72523960794</v>
+        <v>52889.69911338785</v>
       </c>
       <c r="D6" t="n">
-        <v>53563.725239608</v>
+        <v>52889.69911338786</v>
       </c>
       <c r="E6" t="n">
-        <v>87191.32523960782</v>
+        <v>86517.29911338787</v>
       </c>
       <c r="F6" t="n">
-        <v>87191.32523960793</v>
+        <v>86517.29911338779</v>
       </c>
       <c r="G6" t="n">
-        <v>87191.32523960786</v>
+        <v>86517.29911338784</v>
       </c>
       <c r="H6" t="n">
-        <v>87191.3252396079</v>
+        <v>86517.29911338782</v>
       </c>
       <c r="I6" t="n">
-        <v>87191.3252396079</v>
+        <v>86517.29911338787</v>
       </c>
       <c r="J6" t="n">
-        <v>-67548.10912599554</v>
+        <v>-68222.13525221556</v>
       </c>
       <c r="K6" t="n">
-        <v>87191.32523960792</v>
+        <v>86517.29911338782</v>
       </c>
       <c r="L6" t="n">
-        <v>87191.32523960783</v>
+        <v>86517.29911338781</v>
       </c>
       <c r="M6" t="n">
-        <v>87191.32523960793</v>
+        <v>86517.29911338784</v>
       </c>
       <c r="N6" t="n">
-        <v>87191.32523960785</v>
+        <v>86517.2991133879</v>
       </c>
       <c r="O6" t="n">
-        <v>87191.3252396079</v>
+        <v>86517.29911338787</v>
       </c>
       <c r="P6" t="n">
-        <v>87191.3252396079</v>
+        <v>86517.29911338782</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>485.3286999706212</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>34.48300429637448</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>178.2129853711906</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>63.35896009881382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,13 +35260,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728937</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35421,16 +35421,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>390.9080150632263</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>227.4725996515689</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>113.2150418538651</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>128.0817426464304</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35661,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515694</v>
       </c>
       <c r="M15" t="n">
-        <v>180.4514382450733</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35898,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692948</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36135,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36372,7 +36372,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>93.70171839237487</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583875</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>34.48300429637442</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
@@ -36849,10 +36849,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>148.7405620940789</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576763</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515694</v>
       </c>
       <c r="M33" t="n">
-        <v>180.4514382450733</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>351.8287486424423</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>93.701718392375</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37557,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>292.470543168895</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>178.2129853711906</v>
+        <v>503.4202726513626</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38028,13 +38028,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>127.5938369108961</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38104,13 +38104,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576762</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
